--- a/results/logistic/dilemma/confidence/topk/sum_scores.xlsx
+++ b/results/logistic/dilemma/confidence/topk/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="201">
   <si>
     <t>negative</t>
   </si>
@@ -52,10 +52,16 @@
     <t>shit</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>other</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>down</t>
@@ -64,586 +70,553 @@
     <t>addicted</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>illegal</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>black</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>boring</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>this</t>
   </si>
   <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
     <t>s</t>
   </si>
   <si>
-    <t>not</t>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>know</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>drugs</t>
+    <t>’</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>rarely</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hear</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>film</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>extremely</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>school</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>wondered</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>talking</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
     <t>opener</t>
   </si>
   <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>such</t>
+    <t>manipulating</t>
   </si>
   <si>
     <t>latest</t>
-  </si>
-  <si>
-    <t>accounts</t>
-  </si>
-  <si>
-    <t>surprised</t>
-  </si>
-  <si>
-    <t>manipulate</t>
-  </si>
-  <si>
-    <t>very</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1070,13 +1043,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1704545454545454</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1088,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K3">
-        <v>0.1831395348837209</v>
+        <v>0.1765578635014837</v>
       </c>
       <c r="L3">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M3">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1112,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1120,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09232954545454546</v>
+        <v>0.0936599423631124</v>
       </c>
       <c r="C4">
         <v>65</v>
@@ -1141,16 +1114,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K4">
-        <v>0.1148255813953488</v>
+        <v>0.115727002967359</v>
       </c>
       <c r="L4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1162,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1170,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.046875</v>
+        <v>0.04755043227665706</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -1191,16 +1164,16 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K5">
-        <v>0.06831395348837209</v>
+        <v>0.06379821958456973</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1212,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1220,13 +1193,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03835227272727273</v>
+        <v>0.04322766570605188</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1238,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K6">
-        <v>0.06395348837209303</v>
+        <v>0.06231454005934718</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1262,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1270,13 +1243,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03693181818181818</v>
+        <v>0.03602305475504323</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1288,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K7">
-        <v>0.0566860465116279</v>
+        <v>0.06083086053412463</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1312,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1320,13 +1293,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03693181818181818</v>
+        <v>0.0345821325648415</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1338,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K8">
-        <v>0.0377906976744186</v>
+        <v>0.03560830860534125</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1362,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1370,13 +1343,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02840909090909091</v>
+        <v>0.03025936599423631</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1388,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K9">
-        <v>0.03633720930232558</v>
+        <v>0.03412462908011869</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1412,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1420,13 +1393,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02556818181818182</v>
+        <v>0.03025936599423631</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1438,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K10">
-        <v>0.03197674418604651</v>
+        <v>0.03412462908011869</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1462,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1470,13 +1443,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02556818181818182</v>
+        <v>0.02449567723342939</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1488,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K11">
-        <v>0.02906976744186046</v>
+        <v>0.03264094955489615</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1512,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1520,13 +1493,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02414772727272727</v>
+        <v>0.02305475504322766</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1538,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>0.02761627906976744</v>
+        <v>0.02373887240356083</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1562,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1570,13 +1543,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02414772727272727</v>
+        <v>0.02161383285302594</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1588,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>0.02180232558139535</v>
+        <v>0.01928783382789317</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1612,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1620,13 +1593,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02130681818181818</v>
+        <v>0.01873198847262248</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1638,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K14">
-        <v>0.01744186046511628</v>
+        <v>0.01780415430267062</v>
       </c>
       <c r="L14">
         <v>12</v>
@@ -1662,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1670,13 +1643,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02130681818181818</v>
+        <v>0.01873198847262248</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1688,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15">
+        <v>0.01632047477744807</v>
+      </c>
+      <c r="L15">
         <v>11</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15">
-        <v>0.01744186046511628</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
       <c r="M15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1712,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1720,13 +1693,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01846590909090909</v>
+        <v>0.01729106628242075</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1738,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K16">
-        <v>0.01598837209302326</v>
+        <v>0.01632047477744807</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -1770,7 +1743,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01704545454545454</v>
+        <v>0.01729106628242075</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1791,16 +1764,16 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>0.01453488372093023</v>
+        <v>0.01632047477744807</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1812,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1820,37 +1793,37 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01704545454545454</v>
+        <v>0.01585014409221902</v>
       </c>
       <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>23</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K18">
-        <v>0.01308139534883721</v>
+        <v>0.01632047477744807</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1862,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1870,37 +1843,37 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.015625</v>
+        <v>0.01440922190201729</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K19">
-        <v>0.01308139534883721</v>
+        <v>0.01038575667655786</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1912,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1920,13 +1893,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.015625</v>
+        <v>0.01440922190201729</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1938,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K20">
-        <v>0.01162790697674419</v>
+        <v>0.01038575667655786</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1962,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1970,13 +1943,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.015625</v>
+        <v>0.01296829971181556</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1988,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>0.01017441860465116</v>
+        <v>0.01038575667655786</v>
       </c>
       <c r="L21">
         <v>7</v>
@@ -2012,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2020,13 +1993,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01420454545454545</v>
+        <v>0.01296829971181556</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2041,10 +2014,10 @@
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K22">
-        <v>0.008720930232558139</v>
+        <v>0.008902077151335312</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -2062,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>379</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2070,13 +2043,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01136363636363636</v>
+        <v>0.01296829971181556</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2088,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K23">
-        <v>0.007267441860465116</v>
+        <v>0.00741839762611276</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2112,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2120,7 +2093,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01136363636363636</v>
+        <v>0.01152737752161383</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -2138,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K24">
-        <v>0.007267441860465116</v>
+        <v>0.00741839762611276</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2162,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2170,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01136363636363636</v>
+        <v>0.01152737752161383</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -2188,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K25">
-        <v>0.005813953488372093</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="L25">
         <v>4</v>
@@ -2212,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2220,7 +2193,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01136363636363636</v>
+        <v>0.01152737752161383</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -2238,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <v>0.005813953488372093</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="L26">
         <v>4</v>
@@ -2262,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2270,7 +2243,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.009943181818181818</v>
+        <v>0.0100864553314121</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -2288,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K27">
-        <v>0.005813953488372093</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -2312,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2320,7 +2293,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.009943181818181818</v>
+        <v>0.0100864553314121</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -2338,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K28">
-        <v>0.005813953488372093</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -2362,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2370,7 +2343,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.009943181818181818</v>
+        <v>0.0100864553314121</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -2388,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K29">
-        <v>0.005813953488372093</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="L29">
         <v>4</v>
@@ -2412,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2420,13 +2393,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.009943181818181818</v>
+        <v>0.008645533141210375</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2438,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K30">
-        <v>0.005813953488372093</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2462,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2470,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.008522727272727272</v>
+        <v>0.008645533141210375</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2488,31 +2461,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="K31">
-        <v>0.00436046511627907</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>874</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2520,7 +2493,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.007102272727272727</v>
+        <v>0.007204610951008645</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2541,28 +2514,28 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2570,7 +2543,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007102272727272727</v>
+        <v>0.007204610951008645</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2588,31 +2561,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="K33">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>2774</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2620,7 +2593,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.007102272727272727</v>
+        <v>0.007204610951008645</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2641,28 +2614,28 @@
         <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L34">
         <v>3</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2670,7 +2643,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.005681818181818182</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2688,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>446</v>
+        <v>236</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K35">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -2712,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>709</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2720,7 +2693,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005681818181818182</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2738,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>604</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K36">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -2762,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2770,7 +2743,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.005681818181818182</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2788,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K37">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -2812,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2820,49 +2793,49 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.004261363636363636</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>956</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L38">
         <v>3</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2870,13 +2843,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.004261363636363636</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2888,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K39">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L39">
         <v>3</v>
@@ -2912,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2920,13 +2893,13 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.004261363636363636</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2938,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K40">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -2962,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2970,13 +2943,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004261363636363636</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2988,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K41">
-        <v>0.00436046511627907</v>
+        <v>0.004451038575667656</v>
       </c>
       <c r="L41">
         <v>3</v>
@@ -3012,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3020,7 +2993,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -3038,19 +3011,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>103</v>
+        <v>3925</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K42">
-        <v>0.00436046511627907</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3062,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3070,31 +3043,31 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1042</v>
+        <v>447</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K43">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -3112,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3120,7 +3093,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -3138,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K44">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -3162,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3170,7 +3143,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -3188,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K45">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -3212,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3220,7 +3193,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3238,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K46">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -3262,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3270,7 +3243,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3288,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K47">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -3312,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>196</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3320,7 +3293,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3338,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K48">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -3362,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>1145</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3370,7 +3343,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -3388,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K49">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -3412,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3420,7 +3393,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.004261363636363636</v>
+        <v>0.004322766570605188</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3438,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K50">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -3462,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3470,13 +3443,13 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004261363636363636</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3488,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>369</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K51">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -3512,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3520,31 +3493,31 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.004261363636363636</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>16</v>
+        <v>605</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K52">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -3562,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3570,31 +3543,31 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.004261363636363636</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K53">
-        <v>0.002906976744186046</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -3612,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3620,37 +3593,37 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>3925</v>
+        <v>45</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K54">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3662,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>344</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3670,37 +3643,37 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>369</v>
+        <v>953</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K55">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3712,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>663</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3720,57 +3693,57 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="F56">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>778</v>
+        <v>1142</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="K56">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56">
         <v>2</v>
       </c>
       <c r="N56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>731</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3788,19 +3761,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K57">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3812,15 +3785,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>368</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3838,19 +3811,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K58">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3862,15 +3835,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3888,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K59">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3912,15 +3885,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -3938,39 +3911,39 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="K60">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1042</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -3988,19 +3961,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K61">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4012,15 +3985,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002840909090909091</v>
+        <v>0.002881844380403458</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4038,39 +4011,39 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="K62">
-        <v>0.001453488372093023</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>3925</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4091,10 +4064,10 @@
         <v>6</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K63">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4112,15 +4085,15 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4141,10 +4114,10 @@
         <v>114</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K64">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4162,65 +4135,65 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>41</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>265</v>
+        <v>958</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="K65">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>13</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4238,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>62</v>
+        <v>780</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K66">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4262,65 +4235,65 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>8</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>954</v>
+        <v>265</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="K67">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4338,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>448</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K68">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4362,15 +4335,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4388,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K69">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4412,15 +4385,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>18</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4438,39 +4411,39 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="K70">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>778</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4488,39 +4461,39 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="K71">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4538,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K72">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4562,15 +4535,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4588,13 +4561,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K73">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4612,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4638,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K74">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4662,15 +4635,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>951</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4688,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K75">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4712,39 +4685,39 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>731</v>
+        <v>213</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K76">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4762,15 +4735,15 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4788,39 +4761,39 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="K77">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>954</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4838,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K78">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4862,15 +4835,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>549</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4888,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K79">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4912,15 +4885,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>1735</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4938,39 +4911,39 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="K80">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>5</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4988,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K81">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5012,15 +4985,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>9</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5038,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K82">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5062,15 +5035,15 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5088,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K83">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5112,39 +5085,39 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1099</v>
+        <v>62</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K84">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5162,15 +5135,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>539</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5188,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K85">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5212,15 +5185,15 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5241,10 +5214,10 @@
         <v>874</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K86">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5262,15 +5235,15 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5288,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K87">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5312,15 +5285,15 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>14</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5338,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K88">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5362,15 +5335,15 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5388,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K89">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5417,10 +5390,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5438,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K90">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5462,15 +5435,15 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>630</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5488,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K91">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5512,15 +5485,15 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5538,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K92">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -5567,10 +5540,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5588,63 +5561,63 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="K93">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>953</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>21</v>
+        <v>662</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K94">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -5662,15 +5635,15 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>314</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5688,13 +5661,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K95">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5712,15 +5685,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5738,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K96">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -5762,15 +5735,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5788,13 +5761,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K97">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -5812,15 +5785,15 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5838,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K98">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -5862,15 +5835,15 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5888,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K99">
-        <v>0.001453488372093023</v>
+        <v>0.001483679525222552</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -5917,10 +5890,10 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5940,37 +5913,13 @@
       <c r="H100">
         <v>11</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K100">
-        <v>0.001453488372093023</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="P100" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>21</v>
-      </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5988,39 +5937,15 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>9</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K101">
-        <v>0.001453488372093023</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="P101" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6038,39 +5963,15 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>53</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K102">
-        <v>0.001453488372093023</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="P102" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6088,39 +5989,15 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>27</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K103">
-        <v>0.001453488372093023</v>
-      </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>1</v>
-      </c>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001420454545454545</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6138,163 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="A105" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105">
-        <v>0.001420454545454545</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106">
-        <v>0.001420454545454545</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="A107" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107">
-        <v>0.001420454545454545</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
-      <c r="A108" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108">
-        <v>0.001420454545454545</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="A109" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109">
-        <v>0.001420454545454545</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="A110" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110">
-        <v>0.001420454545454545</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
